--- a/transfers_global_FIFA.xlsx
+++ b/transfers_global_FIFA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fifa-transfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA132F-F7C7-4B33-878F-1FE115EE7027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F88296C-7401-4EAD-950B-23D977F865EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D2C974E-8338-4F21-9E0A-B37D732FAA58}"/>
   </bookViews>
@@ -439,9 +439,6 @@
     <t>4.03m</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>139k</t>
   </si>
   <si>
@@ -1198,6 +1195,9 @@
   </si>
   <si>
     <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Not specified</t>
   </si>
 </sst>
 </file>
@@ -1233,9 +1233,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1621,7 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AE2F08-BADB-4F76-966A-53481A666417}">
   <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1666,10 +1667,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2">
@@ -1678,10 +1679,10 @@
       <c r="D2">
         <v>523</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2">
@@ -1695,10 +1696,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -1707,10 +1708,10 @@
       <c r="D3">
         <v>469</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3">
@@ -1724,10 +1725,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -1736,10 +1737,10 @@
       <c r="D4">
         <v>444</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4">
@@ -1753,10 +1754,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -1765,10 +1766,10 @@
       <c r="D5">
         <v>454</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5">
@@ -1782,10 +1783,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
@@ -1794,10 +1795,10 @@
       <c r="D6">
         <v>343</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6">
@@ -1811,10 +1812,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1823,10 +1824,10 @@
       <c r="D7">
         <v>320</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1840,10 +1841,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
@@ -1852,10 +1853,10 @@
       <c r="D8">
         <v>411</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1869,10 +1870,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1881,10 +1882,10 @@
       <c r="D9">
         <v>229</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
@@ -1898,10 +1899,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1910,10 +1911,10 @@
       <c r="D10">
         <v>166</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="G10">
@@ -1927,10 +1928,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
@@ -1939,10 +1940,10 @@
       <c r="D11">
         <v>279</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11">
@@ -1956,10 +1957,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
@@ -1968,10 +1969,10 @@
       <c r="D12">
         <v>239</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
       <c r="G12">
@@ -1985,10 +1986,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
@@ -1997,10 +1998,10 @@
       <c r="D13">
         <v>104</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>46</v>
       </c>
       <c r="G13">
@@ -2014,10 +2015,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
@@ -2026,10 +2027,10 @@
       <c r="D14">
         <v>136</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
       <c r="G14">
@@ -2043,10 +2044,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
@@ -2055,10 +2056,10 @@
       <c r="D15">
         <v>129</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
       <c r="G15">
@@ -2072,10 +2073,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16">
@@ -2084,10 +2085,10 @@
       <c r="D16">
         <v>159</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>55</v>
       </c>
       <c r="G16">
@@ -2101,10 +2102,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17">
@@ -2113,10 +2114,10 @@
       <c r="D17">
         <v>153</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17">
@@ -2130,10 +2131,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18">
@@ -2142,10 +2143,10 @@
       <c r="D18">
         <v>168</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>61</v>
       </c>
       <c r="G18">
@@ -2159,10 +2160,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19">
@@ -2171,10 +2172,10 @@
       <c r="D19">
         <v>198</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>64</v>
       </c>
       <c r="G19">
@@ -2188,10 +2189,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20">
@@ -2200,10 +2201,10 @@
       <c r="D20">
         <v>104</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
       <c r="G20">
@@ -2217,10 +2218,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21">
@@ -2229,10 +2230,10 @@
       <c r="D21">
         <v>79</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>70</v>
       </c>
       <c r="G21">
@@ -2246,10 +2247,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22">
@@ -2258,10 +2259,10 @@
       <c r="D22">
         <v>147</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>73</v>
       </c>
       <c r="G22">
@@ -2275,10 +2276,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23">
@@ -2287,10 +2288,10 @@
       <c r="D23">
         <v>68</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
         <v>76</v>
       </c>
       <c r="G23">
@@ -2304,10 +2305,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
       <c r="C24">
@@ -2316,10 +2317,10 @@
       <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>75</v>
       </c>
       <c r="G24">
@@ -2333,10 +2334,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
@@ -2345,10 +2346,10 @@
       <c r="D25">
         <v>142</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>82</v>
       </c>
       <c r="G25">
@@ -2362,10 +2363,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
       <c r="C26">
@@ -2374,10 +2375,10 @@
       <c r="D26">
         <v>95</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>85</v>
       </c>
       <c r="G26">
@@ -2391,10 +2392,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27">
@@ -2403,10 +2404,10 @@
       <c r="D27">
         <v>102</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>88</v>
       </c>
       <c r="G27">
@@ -2420,10 +2421,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -2432,10 +2433,10 @@
       <c r="D28">
         <v>110</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>91</v>
       </c>
       <c r="G28">
@@ -2449,10 +2450,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>93</v>
       </c>
       <c r="C29">
@@ -2461,10 +2462,10 @@
       <c r="D29">
         <v>129</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>95</v>
       </c>
       <c r="G29">
@@ -2478,10 +2479,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30">
@@ -2490,10 +2491,10 @@
       <c r="D30">
         <v>51</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
         <v>97</v>
       </c>
       <c r="G30">
@@ -2507,10 +2508,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31">
@@ -2519,10 +2520,10 @@
       <c r="D31">
         <v>94</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>100</v>
       </c>
       <c r="G31">
@@ -2536,10 +2537,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32">
@@ -2548,10 +2549,10 @@
       <c r="D32">
         <v>77</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>103</v>
       </c>
       <c r="G32">
@@ -2565,10 +2566,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33">
@@ -2577,10 +2578,10 @@
       <c r="D33">
         <v>103</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>106</v>
       </c>
       <c r="G33">
@@ -2594,10 +2595,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34">
@@ -2606,10 +2607,10 @@
       <c r="D34">
         <v>178</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>109</v>
       </c>
       <c r="G34">
@@ -2623,10 +2624,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35">
@@ -2635,10 +2636,10 @@
       <c r="D35">
         <v>108</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>112</v>
       </c>
       <c r="G35">
@@ -2652,10 +2653,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36">
@@ -2664,10 +2665,10 @@
       <c r="D36">
         <v>89</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>115</v>
       </c>
       <c r="G36">
@@ -2681,10 +2682,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>93</v>
       </c>
       <c r="C37">
@@ -2693,10 +2694,10 @@
       <c r="D37">
         <v>70</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>60</v>
       </c>
       <c r="G37">
@@ -2710,10 +2711,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38">
@@ -2722,10 +2723,10 @@
       <c r="D38">
         <v>68</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>120</v>
       </c>
       <c r="G38">
@@ -2739,10 +2740,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>78</v>
       </c>
       <c r="C39">
@@ -2751,10 +2752,10 @@
       <c r="D39">
         <v>50</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
       </c>
       <c r="G39">
@@ -2768,10 +2769,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>78</v>
       </c>
       <c r="C40">
@@ -2780,10 +2781,10 @@
       <c r="D40">
         <v>80</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>124</v>
       </c>
       <c r="G40">
@@ -2797,10 +2798,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>78</v>
       </c>
       <c r="C41">
@@ -2809,10 +2810,10 @@
       <c r="D41">
         <v>28</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>75</v>
       </c>
       <c r="G41">
@@ -2826,10 +2827,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42">
@@ -2838,10 +2839,10 @@
       <c r="D42">
         <v>52</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
         <v>128</v>
       </c>
       <c r="G42">
@@ -2855,11 +2856,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>129</v>
+      <c r="A43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" t="s">
+        <v>373</v>
       </c>
       <c r="C43">
         <v>81</v>
@@ -2867,11 +2868,11 @@
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
         <v>130</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G43">
         <v>139000</v>
@@ -2884,10 +2885,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44">
@@ -2896,11 +2897,11 @@
       <c r="D44">
         <v>84</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
         <v>133</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G44">
         <v>6220000</v>
@@ -2913,10 +2914,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45">
@@ -2925,11 +2926,11 @@
       <c r="D45">
         <v>104</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
         <v>136</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G45">
         <v>1260000</v>
@@ -2942,10 +2943,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
         <v>78</v>
       </c>
       <c r="C46">
@@ -2954,11 +2955,11 @@
       <c r="D46">
         <v>67</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
         <v>139</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G46">
         <v>8960000</v>
@@ -2971,10 +2972,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47">
@@ -2983,11 +2984,11 @@
       <c r="D47">
         <v>90</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
         <v>142</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G47">
         <v>12000000</v>
@@ -3000,10 +3001,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48">
@@ -3012,11 +3013,11 @@
       <c r="D48">
         <v>51</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>145</v>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
       </c>
       <c r="G48">
         <v>139000</v>
@@ -3029,10 +3030,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49">
@@ -3041,10 +3042,10 @@
       <c r="D49">
         <v>41</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
         <v>75</v>
       </c>
       <c r="G49">
@@ -3058,10 +3059,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50">
@@ -3070,10 +3071,10 @@
       <c r="D50">
         <v>18</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s">
         <v>75</v>
       </c>
       <c r="G50">
@@ -3087,10 +3088,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51">
@@ -3099,11 +3100,11 @@
       <c r="D51">
         <v>36</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" t="s">
         <v>150</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G51">
         <v>17700</v>
@@ -3116,11 +3117,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
         <v>152</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C52">
         <v>63</v>
@@ -3128,10 +3129,10 @@
       <c r="D52">
         <v>20</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" t="s">
         <v>75</v>
       </c>
       <c r="G52">
@@ -3145,10 +3146,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53">
@@ -3157,11 +3158,11 @@
       <c r="D53">
         <v>48</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="s">
         <v>156</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G53">
         <v>6340000</v>
@@ -3174,11 +3175,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>153</v>
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
       </c>
       <c r="C54">
         <v>62</v>
@@ -3186,11 +3187,11 @@
       <c r="D54">
         <v>86</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s">
         <v>159</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G54">
         <v>7450</v>
@@ -3203,10 +3204,10 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
         <v>93</v>
       </c>
       <c r="C55">
@@ -3215,11 +3216,11 @@
       <c r="D55">
         <v>35</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>162</v>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s">
+        <v>161</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3232,10 +3233,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56">
@@ -3244,11 +3245,11 @@
       <c r="D56">
         <v>55</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
         <v>164</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="G56">
         <v>176000</v>
@@ -3261,10 +3262,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57">
@@ -3273,11 +3274,11 @@
       <c r="D57">
         <v>44</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" t="s">
         <v>167</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G57">
         <v>274000</v>
@@ -3290,10 +3291,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
         <v>14</v>
       </c>
       <c r="C58">
@@ -3302,11 +3303,11 @@
       <c r="D58">
         <v>36</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" t="s">
         <v>170</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G58">
         <v>2600000</v>
@@ -3319,10 +3320,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
         <v>93</v>
       </c>
       <c r="C59">
@@ -3331,10 +3332,10 @@
       <c r="D59">
         <v>26</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" t="s">
         <v>75</v>
       </c>
       <c r="G59">
@@ -3348,11 +3349,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>153</v>
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
       </c>
       <c r="C60">
         <v>55</v>
@@ -3360,11 +3361,11 @@
       <c r="D60">
         <v>19</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>175</v>
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
       </c>
       <c r="G60">
         <v>2600000</v>
@@ -3377,10 +3378,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61">
@@ -3389,11 +3390,11 @@
       <c r="D61">
         <v>68</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" t="s">
         <v>177</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G61">
         <v>563000</v>
@@ -3406,11 +3407,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>153</v>
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
       </c>
       <c r="C62">
         <v>54</v>
@@ -3418,11 +3419,11 @@
       <c r="D62">
         <v>49</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" t="s">
         <v>180</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="G62">
         <v>730000</v>
@@ -3435,10 +3436,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
         <v>78</v>
       </c>
       <c r="C63">
@@ -3447,11 +3448,11 @@
       <c r="D63">
         <v>76</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>183</v>
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s">
+        <v>182</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3464,11 +3465,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>153</v>
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
       </c>
       <c r="C64">
         <v>52</v>
@@ -3476,11 +3477,11 @@
       <c r="D64">
         <v>167</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>185</v>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s">
+        <v>184</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3493,10 +3494,10 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65">
@@ -3505,11 +3506,11 @@
       <c r="D65">
         <v>36</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>187</v>
+      <c r="E65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s">
+        <v>186</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3522,10 +3523,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66">
@@ -3534,11 +3535,11 @@
       <c r="D66">
         <v>34</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" t="s">
         <v>189</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G66">
         <v>102000</v>
@@ -3551,10 +3552,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67">
@@ -3563,10 +3564,10 @@
       <c r="D67">
         <v>36</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="E67" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s">
         <v>87</v>
       </c>
       <c r="G67">
@@ -3580,10 +3581,10 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
         <v>78</v>
       </c>
       <c r="C68">
@@ -3592,10 +3593,10 @@
       <c r="D68">
         <v>16</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="E68" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" t="s">
         <v>75</v>
       </c>
       <c r="G68">
@@ -3609,10 +3610,10 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="C69">
@@ -3621,11 +3622,11 @@
       <c r="D69">
         <v>61</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" t="s">
         <v>195</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G69">
         <v>2700000</v>
@@ -3638,10 +3639,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70">
@@ -3650,11 +3651,11 @@
       <c r="D70">
         <v>47</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
         <v>198</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G70">
         <v>308000</v>
@@ -3667,10 +3668,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="C71">
@@ -3679,11 +3680,11 @@
       <c r="D71">
         <v>47</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
         <v>201</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G71">
         <v>3570000</v>
@@ -3696,10 +3697,10 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72">
@@ -3708,11 +3709,11 @@
       <c r="D72">
         <v>26</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>204</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="G72">
         <v>773000</v>
@@ -3725,11 +3726,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>153</v>
+      <c r="A73" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
       </c>
       <c r="C73">
         <v>46</v>
@@ -3737,11 +3738,11 @@
       <c r="D73">
         <v>15</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>207</v>
+      <c r="E73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
+        <v>206</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3754,10 +3755,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74">
@@ -3766,10 +3767,10 @@
       <c r="D74">
         <v>36</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="E74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s">
         <v>75</v>
       </c>
       <c r="G74">
@@ -3783,10 +3784,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75">
@@ -3795,11 +3796,11 @@
       <c r="D75">
         <v>44</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" t="s">
         <v>210</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G75">
         <v>1240000</v>
@@ -3812,10 +3813,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" t="s">
+        <v>211</v>
+      </c>
+      <c r="B76" t="s">
         <v>93</v>
       </c>
       <c r="C76">
@@ -3824,11 +3825,11 @@
       <c r="D76">
         <v>44</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
+        <v>212</v>
+      </c>
+      <c r="F76" t="s">
         <v>213</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="G76">
         <v>35000</v>
@@ -3841,10 +3842,10 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -3853,10 +3854,10 @@
       <c r="D77">
         <v>18</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="E77" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" t="s">
         <v>75</v>
       </c>
       <c r="G77">
@@ -3870,11 +3871,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>153</v>
+      <c r="A78" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" t="s">
+        <v>152</v>
       </c>
       <c r="C78">
         <v>43</v>
@@ -3882,10 +3883,10 @@
       <c r="D78">
         <v>47</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="E78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" t="s">
         <v>75</v>
       </c>
       <c r="G78">
@@ -3899,10 +3900,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
       <c r="C79">
@@ -3911,10 +3912,10 @@
       <c r="D79">
         <v>29</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
         <v>75</v>
       </c>
       <c r="G79">
@@ -3928,10 +3929,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="A80" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" t="s">
         <v>78</v>
       </c>
       <c r="C80">
@@ -3940,10 +3941,10 @@
       <c r="D80">
         <v>12</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="E80" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s">
         <v>75</v>
       </c>
       <c r="G80">
@@ -3957,10 +3958,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81">
@@ -3969,10 +3970,10 @@
       <c r="D81">
         <v>29</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="E81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" t="s">
         <v>75</v>
       </c>
       <c r="G81">
@@ -3986,10 +3987,10 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" t="s">
         <v>78</v>
       </c>
       <c r="C82">
@@ -3998,10 +3999,10 @@
       <c r="D82">
         <v>7</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="E82" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s">
         <v>75</v>
       </c>
       <c r="G82">
@@ -4015,11 +4016,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>129</v>
+      <c r="A83" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>373</v>
       </c>
       <c r="C83">
         <v>39</v>
@@ -4027,10 +4028,10 @@
       <c r="D83">
         <v>22</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="E83" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s">
         <v>75</v>
       </c>
       <c r="G83">
@@ -4044,10 +4045,10 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" t="s">
         <v>78</v>
       </c>
       <c r="C84">
@@ -4056,11 +4057,11 @@
       <c r="D84">
         <v>32</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" t="s">
         <v>225</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="G84">
         <v>89400000</v>
@@ -4073,11 +4074,11 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>153</v>
+      <c r="A85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
       </c>
       <c r="C85">
         <v>39</v>
@@ -4085,11 +4086,11 @@
       <c r="D85">
         <v>40</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
+        <v>227</v>
+      </c>
+      <c r="F85" t="s">
         <v>228</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="G85">
         <v>1410000</v>
@@ -4102,11 +4103,11 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>153</v>
+      <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
       </c>
       <c r="C86">
         <v>37</v>
@@ -4114,11 +4115,11 @@
       <c r="D86">
         <v>54</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>231</v>
+      <c r="E86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s">
+        <v>230</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4131,10 +4132,10 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87">
@@ -4143,10 +4144,10 @@
       <c r="D87">
         <v>9</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="E87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s">
         <v>75</v>
       </c>
       <c r="G87">
@@ -4160,10 +4161,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="A88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" t="s">
         <v>78</v>
       </c>
       <c r="C88">
@@ -4172,10 +4173,10 @@
       <c r="D88">
         <v>15</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="E88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s">
         <v>75</v>
       </c>
       <c r="G88">
@@ -4189,10 +4190,10 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s">
         <v>78</v>
       </c>
       <c r="C89">
@@ -4201,10 +4202,10 @@
       <c r="D89">
         <v>20</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="E89" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" t="s">
         <v>75</v>
       </c>
       <c r="G89">
@@ -4218,10 +4219,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="A90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" t="s">
         <v>78</v>
       </c>
       <c r="C90">
@@ -4230,10 +4231,10 @@
       <c r="D90">
         <v>14</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="E90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s">
         <v>75</v>
       </c>
       <c r="G90">
@@ -4247,10 +4248,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91">
@@ -4259,11 +4260,11 @@
       <c r="D91">
         <v>34</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
+        <v>236</v>
+      </c>
+      <c r="F91" t="s">
         <v>237</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G91">
         <v>230000</v>
@@ -4276,10 +4277,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92">
@@ -4288,11 +4289,11 @@
       <c r="D92">
         <v>19</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>240</v>
+      <c r="E92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s">
+        <v>239</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4305,10 +4306,10 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" t="s">
         <v>78</v>
       </c>
       <c r="C93">
@@ -4317,11 +4318,11 @@
       <c r="D93">
         <v>19</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" t="s">
         <v>242</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G93">
         <v>613000</v>
@@ -4334,10 +4335,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94">
@@ -4346,11 +4347,11 @@
       <c r="D94">
         <v>15</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" t="s">
         <v>245</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G94">
         <v>121000</v>
@@ -4363,10 +4364,10 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" t="s">
         <v>78</v>
       </c>
       <c r="C95">
@@ -4375,10 +4376,10 @@
       <c r="D95">
         <v>13</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="E95" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s">
         <v>75</v>
       </c>
       <c r="G95">
@@ -4392,10 +4393,10 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="A96" t="s">
+        <v>247</v>
+      </c>
+      <c r="B96" t="s">
         <v>93</v>
       </c>
       <c r="C96">
@@ -4404,10 +4405,10 @@
       <c r="D96">
         <v>17</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="E96" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" t="s">
         <v>75</v>
       </c>
       <c r="G96">
@@ -4421,10 +4422,10 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="A97" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" t="s">
         <v>78</v>
       </c>
       <c r="C97">
@@ -4433,10 +4434,10 @@
       <c r="D97">
         <v>13</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="E97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s">
         <v>75</v>
       </c>
       <c r="G97">
@@ -4450,10 +4451,10 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="A98" t="s">
+        <v>249</v>
+      </c>
+      <c r="B98" t="s">
         <v>78</v>
       </c>
       <c r="C98">
@@ -4462,10 +4463,10 @@
       <c r="D98">
         <v>17</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F98" s="1" t="s">
+      <c r="E98" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98" t="s">
         <v>75</v>
       </c>
       <c r="G98">
@@ -4479,11 +4480,11 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>153</v>
+      <c r="A99" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" t="s">
+        <v>152</v>
       </c>
       <c r="C99">
         <v>25</v>
@@ -4491,10 +4492,10 @@
       <c r="D99">
         <v>3</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="E99" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" t="s">
         <v>75</v>
       </c>
       <c r="G99">
@@ -4508,11 +4509,11 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>153</v>
+      <c r="A100" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" t="s">
+        <v>152</v>
       </c>
       <c r="C100">
         <v>24</v>
@@ -4520,11 +4521,11 @@
       <c r="D100">
         <v>22</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
         <v>254</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="G100">
         <v>42000</v>
@@ -4537,11 +4538,11 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>153</v>
+      <c r="A101" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" t="s">
+        <v>152</v>
       </c>
       <c r="C101">
         <v>23</v>
@@ -4549,11 +4550,11 @@
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" t="s">
         <v>257</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="G101">
         <v>520000</v>
@@ -4566,11 +4567,11 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>153</v>
+      <c r="A102" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" t="s">
+        <v>152</v>
       </c>
       <c r="C102">
         <v>23</v>
@@ -4578,11 +4579,11 @@
       <c r="D102">
         <v>44</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>260</v>
+      <c r="E102" t="s">
+        <v>75</v>
+      </c>
+      <c r="F102" t="s">
+        <v>259</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4595,11 +4596,11 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>153</v>
+      <c r="A103" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" t="s">
+        <v>152</v>
       </c>
       <c r="C103">
         <v>23</v>
@@ -4607,11 +4608,11 @@
       <c r="D103">
         <v>27</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
+        <v>261</v>
+      </c>
+      <c r="F103" t="s">
         <v>262</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G103">
         <v>6640000</v>
@@ -4624,10 +4625,10 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" t="s">
         <v>93</v>
       </c>
       <c r="C104">
@@ -4636,10 +4637,10 @@
       <c r="D104">
         <v>10</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="E104" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" t="s">
         <v>75</v>
       </c>
       <c r="G104">
@@ -4653,11 +4654,11 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>153</v>
+      <c r="A105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" t="s">
+        <v>152</v>
       </c>
       <c r="C105">
         <v>22</v>
@@ -4665,10 +4666,10 @@
       <c r="D105">
         <v>16</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="E105" t="s">
+        <v>75</v>
+      </c>
+      <c r="F105" t="s">
         <v>75</v>
       </c>
       <c r="G105">
@@ -4682,11 +4683,11 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>153</v>
+      <c r="A106" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" t="s">
+        <v>152</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -4694,11 +4695,11 @@
       <c r="D106">
         <v>19</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>267</v>
+      <c r="E106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" t="s">
+        <v>266</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4711,11 +4712,11 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>153</v>
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>152</v>
       </c>
       <c r="C107">
         <v>18</v>
@@ -4723,11 +4724,11 @@
       <c r="D107">
         <v>14</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>269</v>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F107" t="s">
+        <v>268</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4740,10 +4741,10 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
         <v>78</v>
       </c>
       <c r="C108">
@@ -4752,10 +4753,10 @@
       <c r="D108">
         <v>15</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="E108" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" t="s">
         <v>75</v>
       </c>
       <c r="G108">
@@ -4769,10 +4770,10 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="A109" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" t="s">
         <v>93</v>
       </c>
       <c r="C109">
@@ -4781,11 +4782,11 @@
       <c r="D109">
         <v>35</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" t="s">
+        <v>271</v>
+      </c>
+      <c r="F109" t="s">
         <v>272</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="G109">
         <v>1950000</v>
@@ -4798,10 +4799,10 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="A110" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110">
@@ -4810,11 +4811,11 @@
       <c r="D110">
         <v>16</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>204</v>
+      <c r="E110" t="s">
+        <v>274</v>
+      </c>
+      <c r="F110" t="s">
+        <v>203</v>
       </c>
       <c r="G110">
         <v>29800</v>
@@ -4827,11 +4828,11 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" t="s">
         <v>276</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -4839,11 +4840,11 @@
       <c r="D111">
         <v>15</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>278</v>
+      <c r="E111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s">
+        <v>277</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4856,11 +4857,11 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>153</v>
+      <c r="A112" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" t="s">
+        <v>152</v>
       </c>
       <c r="C112">
         <v>13</v>
@@ -4868,11 +4869,11 @@
       <c r="D112">
         <v>23</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>280</v>
+      <c r="E112" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" t="s">
+        <v>279</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4885,10 +4886,10 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="A113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" t="s">
         <v>78</v>
       </c>
       <c r="C113">
@@ -4897,10 +4898,10 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="E113" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" t="s">
         <v>75</v>
       </c>
       <c r="G113">
@@ -4914,11 +4915,11 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>153</v>
+      <c r="A114" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" t="s">
+        <v>152</v>
       </c>
       <c r="C114">
         <v>12</v>
@@ -4926,10 +4927,10 @@
       <c r="D114">
         <v>25</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="E114" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" t="s">
         <v>75</v>
       </c>
       <c r="G114">
@@ -4943,11 +4944,11 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>153</v>
+      <c r="A115" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" t="s">
+        <v>152</v>
       </c>
       <c r="C115">
         <v>12</v>
@@ -4955,11 +4956,11 @@
       <c r="D115">
         <v>45</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>178</v>
+      <c r="E115" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" t="s">
+        <v>177</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4972,10 +4973,10 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="A116" t="s">
+        <v>283</v>
+      </c>
+      <c r="B116" t="s">
         <v>78</v>
       </c>
       <c r="C116">
@@ -4984,10 +4985,10 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="E116" t="s">
+        <v>75</v>
+      </c>
+      <c r="F116" t="s">
         <v>75</v>
       </c>
       <c r="G116">
@@ -5001,10 +5002,10 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="A117" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" t="s">
         <v>93</v>
       </c>
       <c r="C117">
@@ -5013,11 +5014,11 @@
       <c r="D117">
         <v>6</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>286</v>
+      <c r="E117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" t="s">
+        <v>285</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5030,11 +5031,11 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>153</v>
+      <c r="A118" t="s">
+        <v>286</v>
+      </c>
+      <c r="B118" t="s">
+        <v>152</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -5042,10 +5043,10 @@
       <c r="D118">
         <v>4</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="E118" t="s">
+        <v>75</v>
+      </c>
+      <c r="F118" t="s">
         <v>75</v>
       </c>
       <c r="G118">
@@ -5059,10 +5060,10 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="A119" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" t="s">
         <v>93</v>
       </c>
       <c r="C119">
@@ -5071,10 +5072,10 @@
       <c r="D119">
         <v>2</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="E119" t="s">
+        <v>75</v>
+      </c>
+      <c r="F119" t="s">
         <v>75</v>
       </c>
       <c r="G119">
@@ -5088,10 +5089,10 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="A120" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" t="s">
         <v>78</v>
       </c>
       <c r="C120">
@@ -5100,10 +5101,10 @@
       <c r="D120">
         <v>7</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="E120" t="s">
+        <v>75</v>
+      </c>
+      <c r="F120" t="s">
         <v>75</v>
       </c>
       <c r="G120">
@@ -5117,11 +5118,11 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>153</v>
+      <c r="A121" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" t="s">
+        <v>152</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5129,10 +5130,10 @@
       <c r="D121">
         <v>11</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="E121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" t="s">
         <v>75</v>
       </c>
       <c r="G121">
@@ -5146,10 +5147,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="A122" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" t="s">
         <v>78</v>
       </c>
       <c r="C122">
@@ -5158,10 +5159,10 @@
       <c r="D122">
         <v>3</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="E122" t="s">
+        <v>75</v>
+      </c>
+      <c r="F122" t="s">
         <v>75</v>
       </c>
       <c r="G122">
@@ -5175,11 +5176,11 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>153</v>
+      <c r="A123" t="s">
+        <v>291</v>
+      </c>
+      <c r="B123" t="s">
+        <v>152</v>
       </c>
       <c r="C123">
         <v>9</v>
@@ -5187,10 +5188,10 @@
       <c r="D123">
         <v>3</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="E123" t="s">
+        <v>75</v>
+      </c>
+      <c r="F123" t="s">
         <v>75</v>
       </c>
       <c r="G123">
@@ -5204,10 +5205,10 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="A124" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" t="s">
         <v>78</v>
       </c>
       <c r="C124">
@@ -5216,10 +5217,10 @@
       <c r="D124">
         <v>3</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="E124" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" t="s">
         <v>75</v>
       </c>
       <c r="G124">
@@ -5233,10 +5234,10 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="A125" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" t="s">
         <v>78</v>
       </c>
       <c r="C125">
@@ -5245,10 +5246,10 @@
       <c r="D125">
         <v>13</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="E125" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" t="s">
         <v>75</v>
       </c>
       <c r="G125">
@@ -5262,11 +5263,11 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>153</v>
+      <c r="A126" t="s">
+        <v>294</v>
+      </c>
+      <c r="B126" t="s">
+        <v>152</v>
       </c>
       <c r="C126">
         <v>8</v>
@@ -5274,10 +5275,10 @@
       <c r="D126">
         <v>2</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="E126" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" t="s">
         <v>75</v>
       </c>
       <c r="G126">
@@ -5291,11 +5292,11 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>153</v>
+      <c r="A127" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" t="s">
+        <v>152</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -5303,11 +5304,11 @@
       <c r="D127">
         <v>28</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" t="s">
+        <v>296</v>
+      </c>
+      <c r="F127" t="s">
         <v>297</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G127">
         <v>2570000</v>
@@ -5320,11 +5321,11 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>153</v>
+      <c r="A128" t="s">
+        <v>298</v>
+      </c>
+      <c r="B128" t="s">
+        <v>152</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -5332,11 +5333,11 @@
       <c r="D128">
         <v>29</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>300</v>
+      <c r="E128" t="s">
+        <v>75</v>
+      </c>
+      <c r="F128" t="s">
+        <v>299</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5349,11 +5350,11 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>153</v>
+      <c r="A129" t="s">
+        <v>300</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -5361,11 +5362,11 @@
       <c r="D129">
         <v>18</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>302</v>
+      <c r="E129" t="s">
+        <v>75</v>
+      </c>
+      <c r="F129" t="s">
+        <v>301</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5378,11 +5379,11 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>153</v>
+      <c r="A130" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" t="s">
+        <v>152</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -5390,10 +5391,10 @@
       <c r="D130">
         <v>3</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="E130" t="s">
+        <v>303</v>
+      </c>
+      <c r="F130" t="s">
         <v>75</v>
       </c>
       <c r="G130">
@@ -5407,11 +5408,11 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>153</v>
+      <c r="A131" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -5419,10 +5420,10 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="E131" t="s">
+        <v>75</v>
+      </c>
+      <c r="F131" t="s">
         <v>75</v>
       </c>
       <c r="G131">
@@ -5436,10 +5437,10 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="A132" t="s">
+        <v>305</v>
+      </c>
+      <c r="B132" t="s">
         <v>78</v>
       </c>
       <c r="C132">
@@ -5448,10 +5449,10 @@
       <c r="D132">
         <v>4</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="E132" t="s">
+        <v>75</v>
+      </c>
+      <c r="F132" t="s">
         <v>75</v>
       </c>
       <c r="G132">
@@ -5465,11 +5466,11 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>153</v>
+      <c r="A133" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133" t="s">
+        <v>152</v>
       </c>
       <c r="C133">
         <v>4</v>
@@ -5477,10 +5478,10 @@
       <c r="D133">
         <v>7</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="E133" t="s">
+        <v>75</v>
+      </c>
+      <c r="F133" t="s">
         <v>75</v>
       </c>
       <c r="G133">
@@ -5494,11 +5495,11 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>153</v>
+      <c r="A134" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -5506,10 +5507,10 @@
       <c r="D134">
         <v>3</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="E134" t="s">
+        <v>75</v>
+      </c>
+      <c r="F134" t="s">
         <v>75</v>
       </c>
       <c r="G134">
@@ -5523,11 +5524,11 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>153</v>
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" t="s">
+        <v>152</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -5535,10 +5536,10 @@
       <c r="D135">
         <v>4</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="E135" t="s">
+        <v>75</v>
+      </c>
+      <c r="F135" t="s">
         <v>75</v>
       </c>
       <c r="G135">
@@ -5552,11 +5553,11 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>153</v>
+      <c r="A136" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -5564,10 +5565,10 @@
       <c r="D136">
         <v>3</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="E136" t="s">
+        <v>75</v>
+      </c>
+      <c r="F136" t="s">
         <v>75</v>
       </c>
       <c r="G136">
@@ -5581,10 +5582,10 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="A137" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" t="s">
         <v>93</v>
       </c>
       <c r="C137">
@@ -5593,10 +5594,10 @@
       <c r="D137">
         <v>2</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="E137" t="s">
+        <v>75</v>
+      </c>
+      <c r="F137" t="s">
         <v>75</v>
       </c>
       <c r="G137">
@@ -5610,11 +5611,11 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>153</v>
+      <c r="A138" t="s">
+        <v>311</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5622,11 +5623,11 @@
       <c r="D138">
         <v>16</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>286</v>
+      <c r="E138" t="s">
+        <v>75</v>
+      </c>
+      <c r="F138" t="s">
+        <v>285</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5639,10 +5640,10 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="A139" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139" t="s">
         <v>93</v>
       </c>
       <c r="C139">
@@ -5651,10 +5652,10 @@
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="E139" t="s">
+        <v>75</v>
+      </c>
+      <c r="F139" t="s">
         <v>75</v>
       </c>
       <c r="G139">
@@ -5668,10 +5669,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="A140" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140" t="s">
         <v>93</v>
       </c>
       <c r="C140">
@@ -5680,10 +5681,10 @@
       <c r="D140">
         <v>2</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="E140" t="s">
+        <v>75</v>
+      </c>
+      <c r="F140" t="s">
         <v>75</v>
       </c>
       <c r="G140">
@@ -5697,11 +5698,11 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>153</v>
+      <c r="A141" t="s">
+        <v>314</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5709,10 +5710,10 @@
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="E141" t="s">
+        <v>75</v>
+      </c>
+      <c r="F141" t="s">
         <v>75</v>
       </c>
       <c r="G141">
@@ -5726,11 +5727,11 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>129</v>
+      <c r="A142" t="s">
+        <v>373</v>
+      </c>
+      <c r="B142" t="s">
+        <v>373</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5738,10 +5739,10 @@
       <c r="D142">
         <v>5</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="E142" t="s">
+        <v>75</v>
+      </c>
+      <c r="F142" t="s">
         <v>75</v>
       </c>
       <c r="G142">
@@ -5755,11 +5756,11 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>153</v>
+      <c r="A143" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -5767,10 +5768,10 @@
       <c r="D143">
         <v>20</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="E143" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" t="s">
         <v>75</v>
       </c>
       <c r="G143">
@@ -5784,10 +5785,10 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="A144" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144" t="s">
         <v>78</v>
       </c>
       <c r="C144">
@@ -5796,10 +5797,10 @@
       <c r="D144">
         <v>0</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="E144" t="s">
+        <v>75</v>
+      </c>
+      <c r="F144" t="s">
         <v>75</v>
       </c>
       <c r="G144">
@@ -5813,156 +5814,156 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>75</v>
+      </c>
+      <c r="F145" t="s">
+        <v>75</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>318</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" t="s">
+        <v>276</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>75</v>
+      </c>
+      <c r="F146" t="s">
+        <v>75</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>75</v>
+      </c>
+      <c r="F147" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" t="s">
         <v>93</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>75</v>
+      </c>
+      <c r="F148" t="s">
+        <v>75</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" t="s">
         <v>78</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>75</v>
+      </c>
+      <c r="F149" t="s">
+        <v>75</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>322</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>153</v>
+      <c r="B150" t="s">
+        <v>152</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -5970,10 +5971,10 @@
       <c r="D150">
         <v>2</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="E150" t="s">
+        <v>75</v>
+      </c>
+      <c r="F150" t="s">
         <v>75</v>
       </c>
       <c r="G150">
@@ -5987,10 +5988,10 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="A151" t="s">
+        <v>323</v>
+      </c>
+      <c r="B151" t="s">
         <v>78</v>
       </c>
       <c r="C151">
@@ -5999,10 +6000,10 @@
       <c r="D151">
         <v>2</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="E151" t="s">
+        <v>75</v>
+      </c>
+      <c r="F151" t="s">
         <v>75</v>
       </c>
       <c r="G151">
@@ -6016,98 +6017,98 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>75</v>
+      </c>
+      <c r="F152" t="s">
+        <v>75</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>325</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" t="s">
         <v>93</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>75</v>
+      </c>
+      <c r="F153" t="s">
+        <v>75</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>326</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" t="s">
         <v>93</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>75</v>
+      </c>
+      <c r="F154" t="s">
+        <v>75</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>327</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>153</v>
+      <c r="B155" t="s">
+        <v>152</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6115,10 +6116,10 @@
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="E155" t="s">
+        <v>75</v>
+      </c>
+      <c r="F155" t="s">
         <v>75</v>
       </c>
       <c r="G155">
@@ -6132,11 +6133,11 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>153</v>
+      <c r="A156" t="s">
+        <v>328</v>
+      </c>
+      <c r="B156" t="s">
+        <v>152</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6144,10 +6145,10 @@
       <c r="D156">
         <v>6</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="E156" t="s">
+        <v>75</v>
+      </c>
+      <c r="F156" t="s">
         <v>75</v>
       </c>
       <c r="G156">
@@ -6161,10 +6162,10 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="A157" t="s">
+        <v>329</v>
+      </c>
+      <c r="B157" t="s">
         <v>93</v>
       </c>
       <c r="C157">
@@ -6173,10 +6174,10 @@
       <c r="D157">
         <v>2</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="E157" t="s">
+        <v>75</v>
+      </c>
+      <c r="F157" t="s">
         <v>75</v>
       </c>
       <c r="G157">
@@ -6190,40 +6191,40 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>75</v>
+      </c>
+      <c r="F158" t="s">
+        <v>75</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>331</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>153</v>
+      <c r="B159" t="s">
+        <v>152</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6231,10 +6232,10 @@
       <c r="D159">
         <v>5</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="E159" t="s">
+        <v>75</v>
+      </c>
+      <c r="F159" t="s">
         <v>75</v>
       </c>
       <c r="G159">
@@ -6248,40 +6249,40 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
+        <v>332</v>
+      </c>
+      <c r="B160" t="s">
+        <v>78</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>75</v>
+      </c>
+      <c r="F160" t="s">
+        <v>75</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>333</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>153</v>
+      <c r="B161" t="s">
+        <v>152</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6289,11 +6290,11 @@
       <c r="D161">
         <v>4</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>335</v>
+      <c r="E161" t="s">
+        <v>75</v>
+      </c>
+      <c r="F161" t="s">
+        <v>334</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -6306,39 +6307,39 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>75</v>
+      </c>
+      <c r="F162" t="s">
+        <v>75</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>336</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>78</v>
       </c>
       <c r="C163">
@@ -6347,10 +6348,10 @@
       <c r="D163">
         <v>2</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F163" s="1" t="s">
+      <c r="E163" t="s">
+        <v>75</v>
+      </c>
+      <c r="F163" t="s">
         <v>75</v>
       </c>
       <c r="G163">
@@ -6364,69 +6365,69 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" t="s">
+        <v>152</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>75</v>
+      </c>
+      <c r="F164" t="s">
+        <v>75</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>338</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="B165" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>75</v>
+      </c>
+      <c r="F165" t="s">
+        <v>75</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>339</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>277</v>
+      <c r="B166" t="s">
+        <v>276</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -6434,10 +6435,10 @@
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F166" s="1" t="s">
+      <c r="E166" t="s">
+        <v>75</v>
+      </c>
+      <c r="F166" t="s">
         <v>75</v>
       </c>
       <c r="G166">
@@ -6451,68 +6452,68 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>93</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>75</v>
+      </c>
+      <c r="F167" t="s">
+        <v>75</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>341</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="B168" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" t="s">
+        <v>75</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>342</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>78</v>
       </c>
       <c r="C169">
@@ -6521,10 +6522,10 @@
       <c r="D169">
         <v>1</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F169" s="1" t="s">
+      <c r="E169" t="s">
+        <v>75</v>
+      </c>
+      <c r="F169" t="s">
         <v>75</v>
       </c>
       <c r="G169">
@@ -6538,39 +6539,39 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
+        <v>343</v>
+      </c>
+      <c r="B170" t="s">
+        <v>93</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>75</v>
+      </c>
+      <c r="F170" t="s">
+        <v>75</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>344</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>78</v>
       </c>
       <c r="C171">
@@ -6579,10 +6580,10 @@
       <c r="D171">
         <v>9</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="E171" t="s">
+        <v>75</v>
+      </c>
+      <c r="F171" t="s">
         <v>75</v>
       </c>
       <c r="G171">
@@ -6596,10 +6597,10 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
         <v>78</v>
       </c>
       <c r="C172">
@@ -6608,10 +6609,10 @@
       <c r="D172">
         <v>1</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="E172" t="s">
+        <v>75</v>
+      </c>
+      <c r="F172" t="s">
         <v>75</v>
       </c>
       <c r="G172">
@@ -6625,40 +6626,40 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>75</v>
+      </c>
+      <c r="F173" t="s">
+        <v>75</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>347</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>153</v>
+      <c r="B174" t="s">
+        <v>152</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6666,10 +6667,10 @@
       <c r="D174">
         <v>1</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="E174" t="s">
+        <v>75</v>
+      </c>
+      <c r="F174" t="s">
         <v>75</v>
       </c>
       <c r="G174">
@@ -6683,40 +6684,40 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>276</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>75</v>
+      </c>
+      <c r="F175" t="s">
+        <v>75</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>349</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>153</v>
+      <c r="B176" t="s">
+        <v>152</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6724,10 +6725,10 @@
       <c r="D176">
         <v>1</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F176" s="1" t="s">
+      <c r="E176" t="s">
+        <v>75</v>
+      </c>
+      <c r="F176" t="s">
         <v>75</v>
       </c>
       <c r="G176">
@@ -6741,11 +6742,11 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>153</v>
+      <c r="A177" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" t="s">
+        <v>152</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6753,10 +6754,10 @@
       <c r="D177">
         <v>2</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F177" s="1" t="s">
+      <c r="E177" t="s">
+        <v>75</v>
+      </c>
+      <c r="F177" t="s">
         <v>75</v>
       </c>
       <c r="G177">
@@ -6770,10 +6771,10 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
         <v>78</v>
       </c>
       <c r="C178">
@@ -6782,10 +6783,10 @@
       <c r="D178">
         <v>3</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F178" s="1" t="s">
+      <c r="E178" t="s">
+        <v>75</v>
+      </c>
+      <c r="F178" t="s">
         <v>75</v>
       </c>
       <c r="G178">
@@ -6799,503 +6800,503 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" t="s">
+        <v>152</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>75</v>
+      </c>
+      <c r="F179" t="s">
+        <v>75</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>353</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="B180" t="s">
+        <v>276</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>75</v>
+      </c>
+      <c r="F180" t="s">
+        <v>75</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>354</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>75</v>
+      </c>
+      <c r="F181" t="s">
+        <v>75</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>355</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" t="s">
         <v>93</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>75</v>
+      </c>
+      <c r="F182" t="s">
+        <v>75</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" t="s">
         <v>93</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>75</v>
+      </c>
+      <c r="F183" t="s">
+        <v>75</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>357</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" t="s">
+        <v>276</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>75</v>
+      </c>
+      <c r="F184" t="s">
+        <v>75</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>358</v>
+      </c>
+      <c r="B185" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>75</v>
+      </c>
+      <c r="F185" t="s">
+        <v>75</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>75</v>
+      </c>
+      <c r="F186" t="s">
+        <v>75</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" t="s">
         <v>93</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>75</v>
+      </c>
+      <c r="F187" t="s">
+        <v>75</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>361</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" t="s">
         <v>93</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>75</v>
+      </c>
+      <c r="F188" t="s">
+        <v>75</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>362</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" t="s">
         <v>93</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>75</v>
+      </c>
+      <c r="F189" t="s">
+        <v>75</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>363</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>75</v>
+      </c>
+      <c r="F190" t="s">
+        <v>75</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>364</v>
+      </c>
+      <c r="B191" t="s">
+        <v>276</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>75</v>
+      </c>
+      <c r="F191" t="s">
+        <v>75</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>365</v>
+      </c>
+      <c r="B192" t="s">
         <v>93</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>75</v>
+      </c>
+      <c r="F192" t="s">
+        <v>75</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" t="s">
         <v>93</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>75</v>
+      </c>
+      <c r="F193" t="s">
+        <v>75</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" t="s">
         <v>93</v>
       </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>75</v>
+      </c>
+      <c r="F194" t="s">
+        <v>75</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="B195" t="s">
+        <v>152</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>75</v>
+      </c>
+      <c r="F195" t="s">
+        <v>75</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>78</v>
       </c>
       <c r="C196">
@@ -7304,10 +7305,10 @@
       <c r="D196">
         <v>7</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F196" s="1" t="s">
+      <c r="E196" t="s">
+        <v>75</v>
+      </c>
+      <c r="F196" t="s">
         <v>75</v>
       </c>
       <c r="G196">
@@ -7321,69 +7322,69 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
+        <v>276</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+      <c r="F197" t="s">
+        <v>75</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="B198" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>75</v>
+      </c>
+      <c r="F198" t="s">
+        <v>75</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>153</v>
+      <c r="B199" t="s">
+        <v>152</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -7391,10 +7392,10 @@
       <c r="D199">
         <v>0</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="E199" t="s">
+        <v>75</v>
+      </c>
+      <c r="F199" t="s">
         <v>75</v>
       </c>
       <c r="G199">
